--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12330.40889390966</v>
+        <v>2453751.369888023</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12330.40889390966</v>
+        <v>2453751.369888023</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25389.18736795585</v>
+        <v>1524192.21279922</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25389.18736795585</v>
+        <v>1524192.21279922</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960982904.6737971</v>
+        <v>40838964.15124495</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10446.67252538955</v>
+        <v>1167753.595115409</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18673.31859586285</v>
+        <v>1954864.24532328</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26899.96466633613</v>
+        <v>2741974.895531153</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35379.90852062147</v>
+        <v>3492895.569809401</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43919.08187823848</v>
+        <v>4255602.91525066</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52298.68879446759</v>
+        <v>5054195.130587636</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>60619.38976091568</v>
+        <v>5841065.061918188</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>68940.0907273638</v>
+        <v>6627934.993248738</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77805.5900908742</v>
+        <v>7344750.725682306</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86785.47133286719</v>
+        <v>8084328.451933911</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95766.62834969928</v>
+        <v>8824268.240753533</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104747.183223636</v>
+        <v>9564088.203136992</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113727.7380975728</v>
+        <v>10303908.16552045</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122708.2929715095</v>
+        <v>11043728.12790391</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131688.8478454462</v>
+        <v>11783548.09028737</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>281</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
